--- a/data/countries/bahamas.xlsx
+++ b/data/countries/bahamas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7BE939-2F7B-A642-9C39-AA7D66FC5E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1A3F3E-873E-724D-9EBC-647EB912D869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="27640" windowHeight="16060" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="27640" windowHeight="16060" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>General</t>
   </si>
@@ -105,9 +105,6 @@
     <t>covid19_deaths</t>
   </si>
   <si>
-    <t>2020-2021 (yearly)</t>
-  </si>
-  <si>
     <t>inbtou_volume_ov</t>
   </si>
   <si>
@@ -160,6 +157,12 @@
   </si>
   <si>
     <t>Bahamas</t>
+  </si>
+  <si>
+    <t>2020-2022 (yearly)</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -284,6 +287,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -602,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74CC475-90E8-AE41-9E12-080CDE43B3C3}">
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -640,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -655,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -663,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -671,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -706,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -714,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -722,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -730,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -738,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -746,7 +752,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -757,7 +763,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -765,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
@@ -773,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
@@ -781,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
@@ -789,7 +795,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
@@ -797,7 +803,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -810,10 +816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D00AED-5EBD-974C-A23B-D47D16AC0D47}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,19 +837,19 @@
         <v>17</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>21</v>
@@ -852,7 +858,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1263,6 +1269,39 @@
       <c r="J13">
         <f>I13/H13</f>
         <v>3.2941884974405297E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14">
+        <v>13015</v>
+      </c>
+      <c r="I14">
+        <v>116</v>
+      </c>
+      <c r="J14">
+        <f>I14/H14</f>
+        <v>8.9127929312331922E-3</v>
       </c>
     </row>
   </sheetData>
